--- a/tests/test1/d40/N, 0.1.xlsx
+++ b/tests/test1/d40/N, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.8235947654032</v>
       </c>
       <c r="F2" t="n">
-        <v>40.43964424087523</v>
+        <v>40.43964424089044</v>
       </c>
       <c r="G2" t="n">
-        <v>94.57754830358327</v>
+        <v>94.5775483035786</v>
       </c>
       <c r="H2" t="n">
-        <v>12.08963541558693</v>
+        <v>12.08963541559286</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>22.92548026557044</v>
+        <v>22.92548026557104</v>
       </c>
       <c r="L2" t="n">
-        <v>39.80974761903373</v>
+        <v>39.80974761905107</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01214284201109751</v>
+        <v>0.01214284201108772</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2836883603098056</v>
+        <v>0.283688360312107</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003123000000009313</v>
+        <v>0.0002455999999995129</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.8375654636337</v>
       </c>
       <c r="F3" t="n">
-        <v>39.71985925103151</v>
+        <v>39.71985925103498</v>
       </c>
       <c r="G3" t="n">
-        <v>71.39679555789789</v>
+        <v>71.39679555789847</v>
       </c>
       <c r="H3" t="n">
-        <v>12.19223887527617</v>
+        <v>12.19223887527745</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -599,16 +599,16 @@
         <v>43.53167591109425</v>
       </c>
       <c r="K3" t="n">
-        <v>19.66109844173785</v>
+        <v>19.66109844173802</v>
       </c>
       <c r="L3" t="n">
-        <v>44.3567396988044</v>
+        <v>44.35673969880851</v>
       </c>
       <c r="M3" t="n">
-        <v>0.012361274022033</v>
+        <v>0.01236127402203076</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2495814512273863</v>
+        <v>0.2495814512277688</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002856000000015513</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.04167578474055147</v>
       </c>
       <c r="F4" t="n">
-        <v>39.62742615732409</v>
+        <v>39.62742615732322</v>
       </c>
       <c r="G4" t="n">
-        <v>94.58346582968367</v>
+        <v>94.58346582970128</v>
       </c>
       <c r="H4" t="n">
-        <v>3.055278733789686</v>
+        <v>3.055278733789518</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>7.530462923525128</v>
+        <v>7.530462923525078</v>
       </c>
       <c r="L4" t="n">
-        <v>37.03750826955617</v>
+        <v>37.03750826955417</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01083395219315677</v>
+        <v>0.01083395219315753</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6658207861365072</v>
+        <v>0.6658207861371677</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003220000000005996</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.8211371526569</v>
       </c>
       <c r="F5" t="n">
-        <v>40.15424885294663</v>
+        <v>40.15424885295292</v>
       </c>
       <c r="G5" t="n">
-        <v>94.83685676366832</v>
+        <v>94.83685676366872</v>
       </c>
       <c r="H5" t="n">
-        <v>11.88486257920751</v>
+        <v>11.88486257920982</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>22.7762214497025</v>
+        <v>22.77622144970281</v>
       </c>
       <c r="L5" t="n">
-        <v>39.4080342557259</v>
+        <v>39.40803425573245</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01406801484188514</v>
+        <v>0.01406801484188063</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2514921500178971</v>
+        <v>0.2514921500185904</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002926000000016415</v>
+        <v>0.0002380999999971323</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9949438292857</v>
       </c>
       <c r="F6" t="n">
-        <v>39.66038835125015</v>
+        <v>39.66038835125046</v>
       </c>
       <c r="G6" t="n">
-        <v>174.4176551463441</v>
+        <v>174.4176551463439</v>
       </c>
       <c r="H6" t="n">
-        <v>9.662095591623448</v>
+        <v>9.662095591623421</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -755,16 +755,16 @@
         <v>26.0718196415876</v>
       </c>
       <c r="K6" t="n">
-        <v>5.141472011848004</v>
+        <v>5.141472011848029</v>
       </c>
       <c r="L6" t="n">
-        <v>25.60753181004728</v>
+        <v>25.60753181004764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009534033759544827</v>
+        <v>0.009534033759544565</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0749759509382254</v>
+        <v>0.07497595093818199</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002983000000007507</v>
+        <v>0.0002349999999964325</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.9558772513115</v>
       </c>
       <c r="F7" t="n">
-        <v>39.44864268541728</v>
+        <v>39.44864268541821</v>
       </c>
       <c r="G7" t="n">
-        <v>39.36320708268934</v>
+        <v>39.36320708268761</v>
       </c>
       <c r="H7" t="n">
-        <v>13.52560885294939</v>
+        <v>13.52560885295062</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -810,13 +810,13 @@
         <v>13.03709232829935</v>
       </c>
       <c r="L7" t="n">
-        <v>50.6874192020167</v>
+        <v>50.68741920201914</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009898685562033306</v>
+        <v>0.009898685562032453</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04578295983068612</v>
+        <v>0.04578295983087748</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003250000000001307</v>
+        <v>0.0003450000000029263</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.03117836734874744</v>
       </c>
       <c r="F8" t="n">
-        <v>39.54522757666043</v>
+        <v>39.54522757666144</v>
       </c>
       <c r="G8" t="n">
-        <v>163.3956649566966</v>
+        <v>163.3956649566952</v>
       </c>
       <c r="H8" t="n">
-        <v>7.491476552776669</v>
+        <v>7.491476552776619</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>7.566219023527465</v>
+        <v>7.566219023527541</v>
       </c>
       <c r="L8" t="n">
-        <v>28.56263730223881</v>
+        <v>28.56263730223995</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009500414634409274</v>
+        <v>0.009500414634408568</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3256663211548237</v>
+        <v>0.3256663211546856</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.0002327999999991448</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.83094742962</v>
       </c>
       <c r="F9" t="n">
-        <v>37.61032930061881</v>
+        <v>37.61032930061907</v>
       </c>
       <c r="G9" t="n">
-        <v>11.70251753847704</v>
+        <v>11.70251753847708</v>
       </c>
       <c r="H9" t="n">
-        <v>15.27583079559134</v>
+        <v>15.2758307955915</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>5.156319245549352</v>
+        <v>5.156319245549365</v>
       </c>
       <c r="L9" t="n">
-        <v>53.15889326222639</v>
+        <v>53.15889326222683</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01272629224509835</v>
+        <v>0.01272629224509813</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6829525068234984</v>
+        <v>0.6829525068235418</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002895000000009418</v>
+        <v>0.0001929000000018277</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.990879528338</v>
       </c>
       <c r="F10" t="n">
-        <v>39.59868103964337</v>
+        <v>39.59868103965719</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2184192413994</v>
+        <v>157.2184192413937</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44095540484234</v>
+        <v>14.44095540484719</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>20.54990433342862</v>
+        <v>20.54990433342961</v>
       </c>
       <c r="L10" t="n">
-        <v>22.43251080905204</v>
+        <v>22.43251080906192</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01116860600290254</v>
+        <v>0.01116860600289206</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05657249127811766</v>
+        <v>0.05657249127617213</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002841999999994016</v>
+        <v>0.0001984999999962156</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9998891445288</v>
       </c>
       <c r="F11" t="n">
-        <v>39.70730082500236</v>
+        <v>39.70730082500243</v>
       </c>
       <c r="G11" t="n">
-        <v>1.655297972382691</v>
+        <v>1.655297972382754</v>
       </c>
       <c r="H11" t="n">
-        <v>8.167546289243113</v>
+        <v>8.167546289243257</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1015,16 +1015,16 @@
         <v>48.22894317908594</v>
       </c>
       <c r="K11" t="n">
-        <v>1.775563092234868</v>
+        <v>1.775563092234881</v>
       </c>
       <c r="L11" t="n">
-        <v>46.91042720604916</v>
+        <v>46.91042720604941</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01067497128110762</v>
+        <v>0.01067497128110752</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2963499467804541</v>
+        <v>0.2963499467804039</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.000333399999998818</v>
+        <v>0.0002373000000019942</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.866841349587</v>
       </c>
       <c r="F12" t="n">
-        <v>39.07185881593317</v>
+        <v>39.07185881593385</v>
       </c>
       <c r="G12" t="n">
-        <v>100.6939873913706</v>
+        <v>100.6939873913831</v>
       </c>
       <c r="H12" t="n">
-        <v>2.397818657150475</v>
+        <v>2.397818657150601</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1067,16 +1067,16 @@
         <v>34.65047640795692</v>
       </c>
       <c r="K12" t="n">
-        <v>6.207470834707218</v>
+        <v>6.207470834707256</v>
       </c>
       <c r="L12" t="n">
-        <v>36.1333078340415</v>
+        <v>36.13330783404155</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01064661218817437</v>
+        <v>0.01064661218817417</v>
       </c>
       <c r="N12" t="n">
-        <v>1.684078117453512</v>
+        <v>1.684078117453111</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003000999999969167</v>
+        <v>0.000194699999994441</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.8250545258695</v>
       </c>
       <c r="F13" t="n">
-        <v>37.55016795771473</v>
+        <v>37.55016795771524</v>
       </c>
       <c r="G13" t="n">
-        <v>17.11105880520317</v>
+        <v>17.11105880520169</v>
       </c>
       <c r="H13" t="n">
-        <v>6.615994036498114</v>
+        <v>6.615994036499161</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>4.560524965841974</v>
+        <v>4.560524965842024</v>
       </c>
       <c r="L13" t="n">
-        <v>42.65645955090738</v>
+        <v>42.65645955090915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01324285241030365</v>
+        <v>0.01324285241030286</v>
       </c>
       <c r="N13" t="n">
-        <v>3.077939383253053</v>
+        <v>3.077939383253957</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.000297899999999629</v>
+        <v>0.0001919999999984157</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.952701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>39.49683806446891</v>
+        <v>39.49683806446907</v>
       </c>
       <c r="G14" t="n">
-        <v>26.57988631509509</v>
+        <v>26.57988631509381</v>
       </c>
       <c r="H14" t="n">
-        <v>12.48549478353805</v>
+        <v>12.48549478353898</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>8.864590988579348</v>
+        <v>8.864590988579335</v>
       </c>
       <c r="L14" t="n">
-        <v>50.88740134439362</v>
+        <v>50.88740134439494</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0106053111210762</v>
+        <v>0.01060531112107564</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1686134789286494</v>
+        <v>0.1686134789289273</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003065000000006535</v>
+        <v>0.0002199000000047135</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.07123906620506157</v>
       </c>
       <c r="F15" t="n">
-        <v>39.46795664644777</v>
+        <v>39.46795664644925</v>
       </c>
       <c r="G15" t="n">
-        <v>146.4273263357334</v>
+        <v>146.4273263357259</v>
       </c>
       <c r="H15" t="n">
-        <v>6.306113125740858</v>
+        <v>6.306113125740347</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>10.03280473635678</v>
+        <v>10.03280473635685</v>
       </c>
       <c r="L15" t="n">
-        <v>31.02093939358425</v>
+        <v>31.02093939358683</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009421638335665101</v>
+        <v>0.009421638335663922</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4414546398297348</v>
+        <v>0.4414546398291824</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002832000000019264</v>
+        <v>0.0002113000000036891</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.8448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>40.2158885347428</v>
+        <v>40.21588853472217</v>
       </c>
       <c r="G16" t="n">
-        <v>88.60347727398432</v>
+        <v>88.60347727398664</v>
       </c>
       <c r="H16" t="n">
-        <v>12.79285849627711</v>
+        <v>12.79285849626875</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>23.36927436597376</v>
+        <v>23.36927436597291</v>
       </c>
       <c r="L16" t="n">
-        <v>41.36695185816907</v>
+        <v>41.36695185814539</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01309526197834471</v>
+        <v>0.01309526197835909</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2632391500118164</v>
+        <v>0.2632391500092841</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002846999999981392</v>
+        <v>0.0002373000000019942</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.0312328481543536</v>
       </c>
       <c r="F17" t="n">
-        <v>39.49824717679362</v>
+        <v>39.49824717679287</v>
       </c>
       <c r="G17" t="n">
-        <v>156.4506441538277</v>
+        <v>156.4506441538299</v>
       </c>
       <c r="H17" t="n">
-        <v>5.513884071231323</v>
+        <v>5.513884071231486</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,16 +1327,16 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>7.094925343092031</v>
+        <v>7.094925343091981</v>
       </c>
       <c r="L17" t="n">
-        <v>31.05406296938824</v>
+        <v>31.0540629693872</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01026955638900133</v>
+        <v>0.0102695563890019</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3374755349221683</v>
+        <v>0.3374755349223701</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003497000000010075</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>38.95358453678558</v>
+        <v>38.95358453679003</v>
       </c>
       <c r="G18" t="n">
-        <v>40.17444604432747</v>
+        <v>40.1744460443242</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937483983900405</v>
+        <v>8.937483983902871</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>10.28478621507984</v>
+        <v>10.28478621508003</v>
       </c>
       <c r="L18" t="n">
-        <v>45.2592086581332</v>
+        <v>45.25920865814044</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008708499819009195</v>
+        <v>0.008708499819006753</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1503420970454785</v>
+        <v>0.1503420970445943</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002943000000001916</v>
+        <v>0.0001945000000063146</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9723734109978</v>
       </c>
       <c r="F19" t="n">
-        <v>39.18698122730538</v>
+        <v>39.18698122730783</v>
       </c>
       <c r="G19" t="n">
-        <v>52.05115616471264</v>
+        <v>52.05115616471421</v>
       </c>
       <c r="H19" t="n">
-        <v>9.308301495812913</v>
+        <v>9.308301495813451</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>12.91345105392611</v>
+        <v>12.91345105392623</v>
       </c>
       <c r="L19" t="n">
-        <v>44.56681802987404</v>
+        <v>44.56681802987674</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01053908562636331</v>
+        <v>0.01053908562636207</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07683462916437678</v>
+        <v>0.07683462916406583</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0002913999999982764</v>
+        <v>0.0001942000000028088</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9920571556194</v>
       </c>
       <c r="F20" t="n">
-        <v>39.40541331332679</v>
+        <v>39.40541331331886</v>
       </c>
       <c r="G20" t="n">
-        <v>117.4770825743737</v>
+        <v>117.4770825743814</v>
       </c>
       <c r="H20" t="n">
-        <v>8.913115813684948</v>
+        <v>8.913115813682841</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>18.49347869846579</v>
+        <v>18.49347869846544</v>
       </c>
       <c r="L20" t="n">
-        <v>33.58862761392776</v>
+        <v>33.5886276139192</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01048082061961273</v>
+        <v>0.01048082061961771</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08593638199902393</v>
+        <v>0.08593638200030174</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003186999999975626</v>
+        <v>0.0001889999999988845</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9778996737318</v>
       </c>
       <c r="F21" t="n">
-        <v>39.01577715623388</v>
+        <v>39.01577715623617</v>
       </c>
       <c r="G21" t="n">
-        <v>17.02628771782204</v>
+        <v>17.0262877178225</v>
       </c>
       <c r="H21" t="n">
-        <v>12.20532439385349</v>
+        <v>12.20532439385448</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1535,16 +1535,16 @@
         <v>51.56829656334563</v>
       </c>
       <c r="K21" t="n">
-        <v>6.164506230597597</v>
+        <v>6.164506230597712</v>
       </c>
       <c r="L21" t="n">
-        <v>50.69700377347947</v>
+        <v>50.69700377348289</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009954670642819838</v>
+        <v>0.009954670642818537</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06296981490127353</v>
+        <v>0.06296981490132639</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.000306699999999438</v>
+        <v>0.000243199999999888</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.9116106887382</v>
       </c>
       <c r="F22" t="n">
-        <v>39.76959547015093</v>
+        <v>39.76959547016825</v>
       </c>
       <c r="G22" t="n">
-        <v>104.4406833893127</v>
+        <v>104.4406833893104</v>
       </c>
       <c r="H22" t="n">
-        <v>13.78714379125803</v>
+        <v>13.78714379126543</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>27.41534544773235</v>
+        <v>27.41534544773313</v>
       </c>
       <c r="L22" t="n">
-        <v>37.20585136122423</v>
+        <v>37.20585136124222</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0104411306522671</v>
+        <v>0.01044113065225773</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05311277659646977</v>
+        <v>0.05311277659848671</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003722000000010439</v>
+        <v>0.0001900000000034652</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.005196424950550942</v>
       </c>
       <c r="F23" t="n">
-        <v>39.98863791419468</v>
+        <v>39.98863791419528</v>
       </c>
       <c r="G23" t="n">
-        <v>9.206726532953976</v>
+        <v>9.206726532954663</v>
       </c>
       <c r="H23" t="n">
-        <v>5.94520284152055</v>
+        <v>5.945202841520287</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1639,16 +1639,16 @@
         <v>45.11750226817573</v>
       </c>
       <c r="K23" t="n">
-        <v>2.984391903999301</v>
+        <v>2.984391903999326</v>
       </c>
       <c r="L23" t="n">
-        <v>44.47493062413438</v>
+        <v>44.47493062413466</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01035505937570059</v>
+        <v>0.0103550593757004</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2388228607519404</v>
+        <v>0.2388228607520493</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0002479999999991378</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.009194991986513107</v>
       </c>
       <c r="F24" t="n">
-        <v>39.48735576259072</v>
+        <v>39.48735576259286</v>
       </c>
       <c r="G24" t="n">
-        <v>39.25941802066069</v>
+        <v>39.25941802066137</v>
       </c>
       <c r="H24" t="n">
-        <v>8.133926424218043</v>
+        <v>8.133926424218599</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1691,16 +1691,16 @@
         <v>46.36511176493712</v>
       </c>
       <c r="K24" t="n">
-        <v>9.398218463671352</v>
+        <v>9.398218463671467</v>
       </c>
       <c r="L24" t="n">
-        <v>45.03306899550195</v>
+        <v>45.03306899550456</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01128648994883159</v>
+        <v>0.01128648994883034</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2805092854828702</v>
+        <v>0.2805092854826066</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003014999999990664</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.9333011943647</v>
       </c>
       <c r="F25" t="n">
-        <v>39.59894190553955</v>
+        <v>39.5989419055299</v>
       </c>
       <c r="G25" t="n">
-        <v>92.11900702546575</v>
+        <v>92.11900702546539</v>
       </c>
       <c r="H25" t="n">
-        <v>14.34123641889294</v>
+        <v>14.34123641888869</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>26.75259558130055</v>
+        <v>26.7525955813001</v>
       </c>
       <c r="L25" t="n">
-        <v>40.70315253707899</v>
+        <v>40.70315253706833</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009650593575794298</v>
+        <v>0.009650593575799157</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03609125759531758</v>
+        <v>0.03609125759660659</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002834000000007109</v>
+        <v>0.0004704999999987081</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.8670787827351</v>
       </c>
       <c r="F26" t="n">
-        <v>39.10998687781867</v>
+        <v>39.10998687782011</v>
       </c>
       <c r="G26" t="n">
-        <v>169.8703986623547</v>
+        <v>169.8703986623531</v>
       </c>
       <c r="H26" t="n">
-        <v>9.45319731541624</v>
+        <v>9.45319731541608</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1795,16 +1795,16 @@
         <v>23.99227987179233</v>
       </c>
       <c r="K26" t="n">
-        <v>6.922250090829625</v>
+        <v>6.922250090829752</v>
       </c>
       <c r="L26" t="n">
-        <v>25.51247532907053</v>
+        <v>25.51247532907224</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01144288027668305</v>
+        <v>0.01144288027668226</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6097243124141276</v>
+        <v>0.6097243124143552</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.000301999999997804</v>
+        <v>0.0002321999999992386</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9771726910334</v>
       </c>
       <c r="F27" t="n">
-        <v>39.8230776806481</v>
+        <v>39.82307768065016</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0784315137973</v>
+        <v>156.0784315137961</v>
       </c>
       <c r="H27" t="n">
-        <v>9.819060762361522</v>
+        <v>9.819060762361991</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>12.64795309190814</v>
+        <v>12.6479530919083</v>
       </c>
       <c r="L27" t="n">
-        <v>27.09342484774942</v>
+        <v>27.09342484775112</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01090637094900503</v>
+        <v>0.01090637094900374</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06184114955725589</v>
+        <v>0.06184114955723699</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0001906999999974346</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.980400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>39.35818164677431</v>
+        <v>39.35818164677911</v>
       </c>
       <c r="G28" t="n">
-        <v>55.30355412676523</v>
+        <v>55.30355412676272</v>
       </c>
       <c r="H28" t="n">
-        <v>9.071918333607776</v>
+        <v>9.071918333609773</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1899,16 +1899,16 @@
         <v>44.8670960835456</v>
       </c>
       <c r="K28" t="n">
-        <v>13.24593262455539</v>
+        <v>13.24593262455559</v>
       </c>
       <c r="L28" t="n">
-        <v>44.11219211951453</v>
+        <v>44.11219211952131</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009874930549740863</v>
+        <v>0.00987493054973812</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07890313452618723</v>
+        <v>0.07890313452540758</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002981999999995821</v>
+        <v>0.0002088999999969587</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.8714394584768</v>
       </c>
       <c r="F29" t="n">
-        <v>39.80236797491412</v>
+        <v>39.8023679749198</v>
       </c>
       <c r="G29" t="n">
-        <v>74.20435894775261</v>
+        <v>74.20435894775099</v>
       </c>
       <c r="H29" t="n">
-        <v>13.17641862502105</v>
+        <v>13.17641862502368</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>21.44312980970297</v>
+        <v>21.44312980970316</v>
       </c>
       <c r="L29" t="n">
-        <v>44.57543397331769</v>
+        <v>44.57543397332525</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01154698758754512</v>
+        <v>0.01154698758754134</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1648524261241377</v>
+        <v>0.1648524261249288</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002838000000018326</v>
+        <v>0.0002005999999994401</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.955366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>39.65783306272414</v>
+        <v>39.65783306273066</v>
       </c>
       <c r="G30" t="n">
-        <v>129.8509673691749</v>
+        <v>129.8509673691711</v>
       </c>
       <c r="H30" t="n">
-        <v>9.560527355209842</v>
+        <v>9.560527355211629</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>18.52284590404106</v>
+        <v>18.52284590404142</v>
       </c>
       <c r="L30" t="n">
-        <v>31.31192713555817</v>
+        <v>31.31192713556429</v>
       </c>
       <c r="M30" t="n">
-        <v>0.009905609220766824</v>
+        <v>0.00990560922076323</v>
       </c>
       <c r="N30" t="n">
-        <v>0.08399732541860258</v>
+        <v>0.08399732541847145</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0003551999999942268</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.04174821263045001</v>
       </c>
       <c r="F31" t="n">
-        <v>39.58257559457956</v>
+        <v>39.58257559458041</v>
       </c>
       <c r="G31" t="n">
-        <v>158.3510876518876</v>
+        <v>158.3510876518858</v>
       </c>
       <c r="H31" t="n">
-        <v>6.784091868961833</v>
+        <v>6.784091868961714</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>8.135242716758384</v>
+        <v>8.135242716758448</v>
       </c>
       <c r="L31" t="n">
-        <v>29.69839768151048</v>
+        <v>29.69839768151158</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01053673647666873</v>
+        <v>0.0105367364766681</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2795682932091518</v>
+        <v>0.2795682932089869</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003174999999977501</v>
+        <v>0.0002099999999956026</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.1264052664776349</v>
       </c>
       <c r="F32" t="n">
-        <v>38.43831967359803</v>
+        <v>38.438319673599</v>
       </c>
       <c r="G32" t="n">
-        <v>124.0451116896076</v>
+        <v>124.0451116896054</v>
       </c>
       <c r="H32" t="n">
-        <v>7.370015712401081</v>
+        <v>7.370015712401241</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>15.53827869142742</v>
+        <v>15.53827869142747</v>
       </c>
       <c r="L32" t="n">
-        <v>32.04164752804182</v>
+        <v>32.04164752804301</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01138446548002808</v>
+        <v>0.0113844654800273</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4146907021666362</v>
+        <v>0.4146907021664649</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002984000000019194</v>
+        <v>0.0001888000000036527</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.04147572142515835</v>
       </c>
       <c r="F33" t="n">
-        <v>38.74850318969158</v>
+        <v>38.74850318969665</v>
       </c>
       <c r="G33" t="n">
-        <v>51.81954348060684</v>
+        <v>51.81954348060705</v>
       </c>
       <c r="H33" t="n">
-        <v>13.72929688934455</v>
+        <v>13.72929688934689</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>16.98737817584273</v>
+        <v>16.98737817584295</v>
       </c>
       <c r="L33" t="n">
-        <v>48.42909159636146</v>
+        <v>48.42909159636858</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01055468316898447</v>
+        <v>0.01055468316898165</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2214844136987579</v>
+        <v>0.2214844136980745</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.000298500000003088</v>
+        <v>0.0001973000000035086</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.03488944509893788</v>
       </c>
       <c r="F34" t="n">
-        <v>39.24215091105928</v>
+        <v>39.24215091105669</v>
       </c>
       <c r="G34" t="n">
-        <v>157.3586893922273</v>
+        <v>157.3586893922275</v>
       </c>
       <c r="H34" t="n">
-        <v>7.749615880676759</v>
+        <v>7.749615880675981</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>9.661965844126611</v>
+        <v>9.661965844126406</v>
       </c>
       <c r="L34" t="n">
-        <v>28.44644057873154</v>
+        <v>28.44644057872976</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01057780570709524</v>
+        <v>0.01057780570709705</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2473904764963845</v>
+        <v>0.2473904764962802</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003042999999998131</v>
+        <v>0.0001892999999952849</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.03188535051081121</v>
       </c>
       <c r="F35" t="n">
-        <v>39.18713448200177</v>
+        <v>39.18713448200256</v>
       </c>
       <c r="G35" t="n">
-        <v>47.02905982578372</v>
+        <v>47.02905982578418</v>
       </c>
       <c r="H35" t="n">
-        <v>7.664281431186012</v>
+        <v>7.664281431186171</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>10.47661775585549</v>
+        <v>10.47661775585553</v>
       </c>
       <c r="L35" t="n">
-        <v>43.56606783072057</v>
+        <v>43.56606783072146</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009803110096886026</v>
+        <v>0.009803110096885613</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3487874678621239</v>
+        <v>0.3487874678620482</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9756164899372</v>
       </c>
       <c r="F36" t="n">
-        <v>39.25411198024368</v>
+        <v>39.25411198024334</v>
       </c>
       <c r="G36" t="n">
-        <v>6.853368924962084</v>
+        <v>6.853368924961791</v>
       </c>
       <c r="H36" t="n">
-        <v>12.22248991733078</v>
+        <v>12.22248991733145</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2318,13 +2318,13 @@
         <v>3.246207581933562</v>
       </c>
       <c r="L36" t="n">
-        <v>51.28222149911348</v>
+        <v>51.28222149911396</v>
       </c>
       <c r="M36" t="n">
-        <v>0.009787804401768008</v>
+        <v>0.009787804401767995</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06139809122534172</v>
+        <v>0.06139809122519831</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002914000000018291</v>
+        <v>0.0002037000000001399</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.1889736710087823</v>
       </c>
       <c r="F37" t="n">
-        <v>38.42086724547055</v>
+        <v>38.42086724547033</v>
       </c>
       <c r="G37" t="n">
-        <v>100.0510421351119</v>
+        <v>100.0510421351122</v>
       </c>
       <c r="H37" t="n">
-        <v>5.831050001002754</v>
+        <v>5.831050001002702</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>13.31874489002579</v>
+        <v>13.31874489002578</v>
       </c>
       <c r="L37" t="n">
-        <v>35.53896779752638</v>
+        <v>35.53896779752612</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01404779735925591</v>
+        <v>0.01404779735925619</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9463265392147626</v>
+        <v>0.9463265392148008</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005755000000000621</v>
+        <v>0.0001891000000000531</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.9323586734246</v>
       </c>
       <c r="F38" t="n">
-        <v>39.65896120801012</v>
+        <v>39.6589612080162</v>
       </c>
       <c r="G38" t="n">
-        <v>129.2704383025524</v>
+        <v>129.2704383025481</v>
       </c>
       <c r="H38" t="n">
-        <v>10.02232729809483</v>
+        <v>10.02232729809651</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>19.52201633927942</v>
+        <v>19.52201633927973</v>
       </c>
       <c r="L38" t="n">
-        <v>31.22485170943942</v>
+        <v>31.22485170944531</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01178879198868535</v>
+        <v>0.01178879198868146</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1064595611327511</v>
+        <v>0.1064595611326827</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.005446361233744566</v>
       </c>
       <c r="F39" t="n">
-        <v>39.71429524591194</v>
+        <v>39.7142952459151</v>
       </c>
       <c r="G39" t="n">
-        <v>170.2932641383142</v>
+        <v>170.2932641383139</v>
       </c>
       <c r="H39" t="n">
-        <v>8.580475892430616</v>
+        <v>8.58047589243187</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2471,16 +2471,16 @@
         <v>27.41620526036646</v>
       </c>
       <c r="K39" t="n">
-        <v>6.163670125512798</v>
+        <v>6.163670125513052</v>
       </c>
       <c r="L39" t="n">
-        <v>27.10546084875408</v>
+        <v>27.10546084875579</v>
       </c>
       <c r="M39" t="n">
-        <v>0.009877860965432167</v>
+        <v>0.009877860965430189</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03494416464306408</v>
+        <v>0.0349441646432541</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002926999999992574</v>
+        <v>0.0001984999999962156</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.8991294351883</v>
       </c>
       <c r="F40" t="n">
-        <v>39.64152852097933</v>
+        <v>39.64152852097853</v>
       </c>
       <c r="G40" t="n">
-        <v>67.77464767688811</v>
+        <v>67.77464767688825</v>
       </c>
       <c r="H40" t="n">
-        <v>13.54663971337994</v>
+        <v>13.54663971337955</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>20.50791223185172</v>
+        <v>20.50791223185168</v>
       </c>
       <c r="L40" t="n">
-        <v>46.09527380788226</v>
+        <v>46.09527380788118</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01140846639723483</v>
+        <v>0.01140846639723535</v>
       </c>
       <c r="N40" t="n">
-        <v>0.08953873563351475</v>
+        <v>0.08953873563340756</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0002421000000012441</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.8595160433978</v>
       </c>
       <c r="F41" t="n">
-        <v>39.95505527609332</v>
+        <v>39.95505527608262</v>
       </c>
       <c r="G41" t="n">
-        <v>95.46781725552114</v>
+        <v>95.46781725552471</v>
       </c>
       <c r="H41" t="n">
-        <v>12.83082410834558</v>
+        <v>12.83082410834112</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>24.56855032495675</v>
+        <v>24.56855032495636</v>
       </c>
       <c r="L41" t="n">
-        <v>39.44238259495602</v>
+        <v>39.44238259494363</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01231322069149312</v>
+        <v>0.01231322069150022</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1644188626019734</v>
+        <v>0.1644188626005628</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003381999999980678</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.06075476972112828</v>
       </c>
       <c r="F42" t="n">
-        <v>39.52775668338006</v>
+        <v>39.52775668338126</v>
       </c>
       <c r="G42" t="n">
-        <v>86.47426289116324</v>
+        <v>86.47426289115072</v>
       </c>
       <c r="H42" t="n">
-        <v>3.278723215841644</v>
+        <v>3.278723215841961</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>7.875697671018212</v>
+        <v>7.875697671018276</v>
       </c>
       <c r="L42" t="n">
-        <v>37.50710888491674</v>
+        <v>37.50710888491885</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01026742724304169</v>
+        <v>0.01026742724304074</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6689251762716997</v>
+        <v>0.6689251762710653</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0006979999999998654</v>
+        <v>0.0006960999999989781</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.0270712323067284</v>
       </c>
       <c r="F43" t="n">
-        <v>39.42368236649426</v>
+        <v>39.42368236649342</v>
       </c>
       <c r="G43" t="n">
-        <v>54.26868058161853</v>
+        <v>54.26868058161156</v>
       </c>
       <c r="H43" t="n">
-        <v>2.889130553243765</v>
+        <v>2.889130553243944</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>5.886188925113672</v>
+        <v>5.886188925113621</v>
       </c>
       <c r="L43" t="n">
-        <v>39.03779044819732</v>
+        <v>39.03779044819694</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0102051915209077</v>
+        <v>0.01020519152090798</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7697316848582308</v>
+        <v>0.7697316848579603</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0005491000000006352</v>
+        <v>0.0002473999999992316</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9503285846989</v>
       </c>
       <c r="F44" t="n">
-        <v>39.49186083162438</v>
+        <v>39.4918608316393</v>
       </c>
       <c r="G44" t="n">
-        <v>66.90949504585616</v>
+        <v>66.90949504585632</v>
       </c>
       <c r="H44" t="n">
-        <v>14.34270011583903</v>
+        <v>14.34270011584587</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>21.25409347109715</v>
+        <v>21.25409347109773</v>
       </c>
       <c r="L44" t="n">
-        <v>46.80934768547732</v>
+        <v>46.80934768549692</v>
       </c>
       <c r="M44" t="n">
-        <v>0.01001182558167222</v>
+        <v>0.01001182558166402</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04262159832969607</v>
+        <v>0.04262159832766536</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003383999999968523</v>
+        <v>0.0002341000000001259</v>
       </c>
     </row>
     <row r="45">
@@ -2768,10 +2768,10 @@
         <v>359.9742600074655</v>
       </c>
       <c r="F45" t="n">
-        <v>39.03175060896312</v>
+        <v>39.03175060896417</v>
       </c>
       <c r="G45" t="n">
-        <v>19.92260649091235</v>
+        <v>19.92260649091313</v>
       </c>
       <c r="H45" t="n">
         <v>10.44457626575111</v>
@@ -2783,16 +2783,16 @@
         <v>49.26789962097028</v>
       </c>
       <c r="K45" t="n">
-        <v>6.420370016312831</v>
+        <v>6.420370016312882</v>
       </c>
       <c r="L45" t="n">
-        <v>48.50299308810718</v>
+        <v>48.50299308810818</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01002394437410952</v>
+        <v>0.01002394437410905</v>
       </c>
       <c r="N45" t="n">
-        <v>0.08897943311254154</v>
+        <v>0.08897943311247206</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003047999999985507</v>
+        <v>0.0002986000000007039</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.07506147172559083</v>
       </c>
       <c r="F46" t="n">
-        <v>40.06202239511039</v>
+        <v>40.06202239510904</v>
       </c>
       <c r="G46" t="n">
-        <v>159.0777168602814</v>
+        <v>159.0777168602827</v>
       </c>
       <c r="H46" t="n">
-        <v>5.33632097418823</v>
+        <v>5.336320974188114</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2835,16 +2835,16 @@
         <v>33.15455134515927</v>
       </c>
       <c r="K46" t="n">
-        <v>6.364722714603012</v>
+        <v>6.364722714602923</v>
       </c>
       <c r="L46" t="n">
-        <v>31.65939352869503</v>
+        <v>31.65939352869374</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01076971679441923</v>
+        <v>0.01076971679442022</v>
       </c>
       <c r="N46" t="n">
-        <v>0.9411777445830037</v>
+        <v>0.9411777445830556</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0004635000000021705</v>
+        <v>0.0002358000000057814</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.997362522715</v>
       </c>
       <c r="F47" t="n">
-        <v>39.62753536184224</v>
+        <v>39.62753536184205</v>
       </c>
       <c r="G47" t="n">
         <v>178.3161425494896</v>
       </c>
       <c r="H47" t="n">
-        <v>9.792949810289445</v>
+        <v>9.792949810289324</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2887,16 +2887,16 @@
         <v>25.92450555328367</v>
       </c>
       <c r="K47" t="n">
-        <v>3.429251400900285</v>
+        <v>3.429251400900272</v>
       </c>
       <c r="L47" t="n">
-        <v>25.31002726611843</v>
+        <v>25.31002726611839</v>
       </c>
       <c r="M47" t="n">
-        <v>0.009577470131353304</v>
+        <v>0.009577470131353382</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1080400605457661</v>
+        <v>0.1080400605457381</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003132999999984065</v>
+        <v>0.0002012000000064518</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.941512416013</v>
       </c>
       <c r="F48" t="n">
-        <v>39.86065406009642</v>
+        <v>39.8606540601014</v>
       </c>
       <c r="G48" t="n">
-        <v>139.7023501744317</v>
+        <v>139.7023501744291</v>
       </c>
       <c r="H48" t="n">
-        <v>10.44765412934473</v>
+        <v>10.44765412934612</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>18.45522692521689</v>
+        <v>18.45522692521719</v>
       </c>
       <c r="L48" t="n">
-        <v>29.1830711443356</v>
+        <v>29.18307114433996</v>
       </c>
       <c r="M48" t="n">
-        <v>0.010829707771847</v>
+        <v>0.01082970777184415</v>
       </c>
       <c r="N48" t="n">
-        <v>0.09059103938543261</v>
+        <v>0.09059103938534432</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003124999999997158</v>
+        <v>0.0002161999999970021</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.0848009475766186</v>
       </c>
       <c r="F49" t="n">
-        <v>39.39217096291946</v>
+        <v>39.39217096291991</v>
       </c>
       <c r="G49" t="n">
-        <v>21.79210847316599</v>
+        <v>21.79210847316529</v>
       </c>
       <c r="H49" t="n">
-        <v>12.66579242869151</v>
+        <v>12.66579242869237</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>7.689840830731707</v>
+        <v>7.689840830731719</v>
       </c>
       <c r="L49" t="n">
-        <v>51.35034984258591</v>
+        <v>51.35034984258741</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01068488461219457</v>
+        <v>0.01068488461219414</v>
       </c>
       <c r="N49" t="n">
-        <v>0.4846361685643427</v>
+        <v>0.4846361685641247</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0005443000000013853</v>
+        <v>0.0002453000000031125</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.09936313199284796</v>
       </c>
       <c r="F50" t="n">
-        <v>40.71824861513487</v>
+        <v>40.71824861513461</v>
       </c>
       <c r="G50" t="n">
-        <v>2.938202055443936</v>
+        <v>2.938202055443859</v>
       </c>
       <c r="H50" t="n">
-        <v>9.766096264779668</v>
+        <v>9.766096264780419</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>2.117799089091669</v>
+        <v>2.117799089091682</v>
       </c>
       <c r="L50" t="n">
-        <v>49.83977669702193</v>
+        <v>49.83977669702258</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01152758417940533</v>
+        <v>0.01152758417940525</v>
       </c>
       <c r="N50" t="n">
-        <v>0.869024202242909</v>
+        <v>0.869024202242753</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0004930999999999131</v>
+        <v>0.0002805999999964115</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.1043159078206541</v>
       </c>
       <c r="F51" t="n">
-        <v>39.00655635132478</v>
+        <v>39.00655635132422</v>
       </c>
       <c r="G51" t="n">
-        <v>65.2437551884107</v>
+        <v>65.24375518841312</v>
       </c>
       <c r="H51" t="n">
-        <v>4.787076849651247</v>
+        <v>4.787076849651001</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>9.450945993732066</v>
+        <v>9.45094599373204</v>
       </c>
       <c r="L51" t="n">
-        <v>39.3295228718299</v>
+        <v>39.32952287182899</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01027981599986234</v>
+        <v>0.01027981599986271</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8999501384405233</v>
+        <v>0.8999501384407298</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0008009999999991635</v>
+        <v>0.0002228000000030761</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.1560352108683698</v>
       </c>
       <c r="F52" t="n">
-        <v>38.72454132856898</v>
+        <v>38.72454132856708</v>
       </c>
       <c r="G52" t="n">
-        <v>106.0465556659155</v>
+        <v>106.0465556659214</v>
       </c>
       <c r="H52" t="n">
-        <v>5.256902533574013</v>
+        <v>5.256902533573681</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3147,16 +3147,16 @@
         <v>38.3554914922189</v>
       </c>
       <c r="K52" t="n">
-        <v>12.05430675850777</v>
+        <v>12.05430675850768</v>
       </c>
       <c r="L52" t="n">
-        <v>35.1391244577871</v>
+        <v>35.13912445778463</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01225096658018787</v>
+        <v>0.01225096658018945</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7911363825875932</v>
+        <v>0.7911363825880153</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.000319100000002237</v>
+        <v>0.0002157999999994331</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.02905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>39.28853898260684</v>
+        <v>39.28853898260498</v>
       </c>
       <c r="G53" t="n">
-        <v>125.915540600741</v>
+        <v>125.9155406007549</v>
       </c>
       <c r="H53" t="n">
-        <v>3.525068065347255</v>
+        <v>3.525068065347411</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3199,16 +3199,16 @@
         <v>35.48188845695773</v>
       </c>
       <c r="K53" t="n">
-        <v>7.689238548609877</v>
+        <v>7.689238548609763</v>
       </c>
       <c r="L53" t="n">
-        <v>34.5010607222514</v>
+        <v>34.50106072224857</v>
       </c>
       <c r="M53" t="n">
-        <v>0.009990077941453481</v>
+        <v>0.009990077941454891</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1760924038173741</v>
+        <v>0.1760924038177712</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002980999999984135</v>
+        <v>0.0001869000000027654</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.9480524159385</v>
       </c>
       <c r="F54" t="n">
-        <v>39.60656261458471</v>
+        <v>39.60656261458392</v>
       </c>
       <c r="G54" t="n">
-        <v>136.4823975997809</v>
+        <v>136.4823975997879</v>
       </c>
       <c r="H54" t="n">
-        <v>2.660189087811259</v>
+        <v>2.66018908781142</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>5.489830234651189</v>
+        <v>5.489830234651126</v>
       </c>
       <c r="L54" t="n">
-        <v>34.83508119188993</v>
+        <v>34.83508119188873</v>
       </c>
       <c r="M54" t="n">
-        <v>0.009478852329768557</v>
+        <v>0.009478852329769109</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8177175769184059</v>
+        <v>0.8177175769180285</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002899000000020635</v>
+        <v>0.000248200000001475</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.979413513315</v>
       </c>
       <c r="F55" t="n">
-        <v>39.44346143873987</v>
+        <v>39.44346143874086</v>
       </c>
       <c r="G55" t="n">
-        <v>152.1853969332945</v>
+        <v>152.1853969332927</v>
       </c>
       <c r="H55" t="n">
-        <v>9.527901315942513</v>
+        <v>9.527901315942504</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>13.65740101900717</v>
+        <v>13.6574010190072</v>
       </c>
       <c r="L55" t="n">
-        <v>27.49195217112089</v>
+        <v>27.49195217112209</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01142731227643497</v>
+        <v>0.01142731227643426</v>
       </c>
       <c r="N55" t="n">
-        <v>0.08495669008722839</v>
+        <v>0.08495669008719642</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0008949000000022522</v>
+        <v>0.0002048999999999523</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.185221074461286</v>
       </c>
       <c r="F56" t="n">
-        <v>38.27617572361044</v>
+        <v>38.2761757236128</v>
       </c>
       <c r="G56" t="n">
-        <v>89.56510514271859</v>
+        <v>89.56510514271788</v>
       </c>
       <c r="H56" t="n">
-        <v>6.193372187743473</v>
+        <v>6.193372187744045</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>13.72936353419722</v>
+        <v>13.72936353419736</v>
       </c>
       <c r="L56" t="n">
-        <v>36.76653201956512</v>
+        <v>36.76653201956768</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01239403427079615</v>
+        <v>0.01239403427079447</v>
       </c>
       <c r="N56" t="n">
-        <v>0.9264288471991594</v>
+        <v>0.9264288471988067</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.1623731114634006</v>
       </c>
       <c r="F57" t="n">
-        <v>39.70935219225001</v>
+        <v>39.70935219225071</v>
       </c>
       <c r="G57" t="n">
-        <v>19.25070365187909</v>
+        <v>19.25070365187934</v>
       </c>
       <c r="H57" t="n">
-        <v>11.07762905425766</v>
+        <v>11.07762905425784</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3407,16 +3407,16 @@
         <v>54.58643989705576</v>
       </c>
       <c r="K57" t="n">
-        <v>6.511051766610453</v>
+        <v>6.511051766610479</v>
       </c>
       <c r="L57" t="n">
-        <v>49.96497198430188</v>
+        <v>49.96497198430277</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01237990673499403</v>
+        <v>0.01237990673499368</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8283633834156413</v>
+        <v>0.828363383415583</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002846000000005233</v>
+        <v>0.0001889999999988845</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.1037643175502605</v>
       </c>
       <c r="F58" t="n">
-        <v>40.79624055420133</v>
+        <v>40.79624055420179</v>
       </c>
       <c r="G58" t="n">
-        <v>179.2071375499699</v>
+        <v>179.2071375499696</v>
       </c>
       <c r="H58" t="n">
-        <v>9.632049953719349</v>
+        <v>9.632049953719296</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3459,16 +3459,16 @@
         <v>29.03628849697263</v>
       </c>
       <c r="K58" t="n">
-        <v>3.019433987852321</v>
+        <v>3.019433987852372</v>
       </c>
       <c r="L58" t="n">
-        <v>26.65946854543979</v>
+        <v>26.65946854544033</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01204959301687449</v>
+        <v>0.01204959301687375</v>
       </c>
       <c r="N58" t="n">
-        <v>1.155963529286088</v>
+        <v>1.155963529286017</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="59">
@@ -3496,10 +3496,10 @@
         <v>0.0131052157346955</v>
       </c>
       <c r="F59" t="n">
-        <v>39.18621125846717</v>
+        <v>39.18621125846723</v>
       </c>
       <c r="G59" t="n">
-        <v>15.23408967396989</v>
+        <v>15.23408967396994</v>
       </c>
       <c r="H59" t="n">
         <v>5.587793711759503</v>
@@ -3514,13 +3514,13 @@
         <v>3.909532146133402</v>
       </c>
       <c r="L59" t="n">
-        <v>43.13996519606013</v>
+        <v>43.1399651960602</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01116986350604558</v>
+        <v>0.01116986350604553</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1389193358250489</v>
+        <v>0.138919335825045</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003302000000005023</v>
+        <v>0.0002459999999970819</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.07601861461744777</v>
       </c>
       <c r="F60" t="n">
-        <v>38.56706438607591</v>
+        <v>38.56706438607412</v>
       </c>
       <c r="G60" t="n">
-        <v>69.09644965173037</v>
+        <v>69.09644965172851</v>
       </c>
       <c r="H60" t="n">
-        <v>7.600227336377817</v>
+        <v>7.600227336377478</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>13.95428506096656</v>
+        <v>13.95428506096646</v>
       </c>
       <c r="L60" t="n">
-        <v>40.39691986576047</v>
+        <v>40.39691986575873</v>
       </c>
       <c r="M60" t="n">
-        <v>0.01013753908078379</v>
+        <v>0.0101375390807846</v>
       </c>
       <c r="N60" t="n">
-        <v>0.4378234152866786</v>
+        <v>0.4378234152868288</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002892000000009887</v>
+        <v>0.0001896999999999593</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.1669283521394677</v>
       </c>
       <c r="F61" t="n">
-        <v>40.35311238162868</v>
+        <v>40.35311238162779</v>
       </c>
       <c r="G61" t="n">
-        <v>174.8635818685495</v>
+        <v>174.8635818685486</v>
       </c>
       <c r="H61" t="n">
-        <v>8.239189027849527</v>
+        <v>8.239189027848289</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>4.455585831010723</v>
+        <v>4.455585831010684</v>
       </c>
       <c r="L61" t="n">
-        <v>27.97379543873073</v>
+        <v>27.97379543873133</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01378929661870526</v>
+        <v>0.01378929661870553</v>
       </c>
       <c r="N61" t="n">
-        <v>2.162169476887417</v>
+        <v>2.162169476886737</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.0921770993213077</v>
       </c>
       <c r="F62" t="n">
-        <v>39.55714687598525</v>
+        <v>39.55714687598513</v>
       </c>
       <c r="G62" t="n">
-        <v>68.30295615363538</v>
+        <v>68.30295615363846</v>
       </c>
       <c r="H62" t="n">
-        <v>4.184381575636246</v>
+        <v>4.184381575636095</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3670,13 +3670,13 @@
         <v>8.646333743364711</v>
       </c>
       <c r="L62" t="n">
-        <v>39.24307872483453</v>
+        <v>39.24307872483408</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01191065067548155</v>
+        <v>0.01191065067548171</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9597282170915693</v>
+        <v>0.9597282170917359</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003199999999985437</v>
+        <v>0.0001891000000000531</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.04314955515597899</v>
       </c>
       <c r="F63" t="n">
-        <v>39.64069027089487</v>
+        <v>39.6406902708943</v>
       </c>
       <c r="G63" t="n">
-        <v>152.8703948258785</v>
+        <v>152.87039482588</v>
       </c>
       <c r="H63" t="n">
-        <v>5.598422718099012</v>
+        <v>5.598422718099073</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>7.820130006243609</v>
+        <v>7.820130006243583</v>
       </c>
       <c r="L63" t="n">
-        <v>31.33678259202895</v>
+        <v>31.33678259202823</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01067510659510116</v>
+        <v>0.01067510659510163</v>
       </c>
       <c r="N63" t="n">
-        <v>0.3775706755843067</v>
+        <v>0.3775706755844156</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002946000000001447</v>
+        <v>0.0002234000000029823</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.001232542630374539</v>
       </c>
       <c r="F64" t="n">
-        <v>39.81490995468078</v>
+        <v>39.81490995468039</v>
       </c>
       <c r="G64" t="n">
-        <v>6.163474213756131</v>
+        <v>6.163474213755864</v>
       </c>
       <c r="H64" t="n">
-        <v>8.25618745754335</v>
+        <v>8.256187457543597</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>2.719764913746749</v>
+        <v>2.719764913746737</v>
       </c>
       <c r="L64" t="n">
-        <v>47.10176069324387</v>
+        <v>47.10176069324378</v>
       </c>
       <c r="M64" t="n">
-        <v>0.009095478089579329</v>
+        <v>0.009095478089579435</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2124041685687797</v>
+        <v>0.212404168568714</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002946000000001447</v>
+        <v>0.000240800000000263</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.2138978653518085</v>
       </c>
       <c r="F65" t="n">
-        <v>38.0738312943075</v>
+        <v>38.07383129430853</v>
       </c>
       <c r="G65" t="n">
-        <v>113.8731578632313</v>
+        <v>113.8731578632303</v>
       </c>
       <c r="H65" t="n">
-        <v>7.169377014903275</v>
+        <v>7.169377014903525</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>16.0182055248818</v>
+        <v>16.01820552488186</v>
       </c>
       <c r="L65" t="n">
-        <v>33.26697484732455</v>
+        <v>33.26697484732566</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01397876008072746</v>
+        <v>0.01397876008072641</v>
       </c>
       <c r="N65" t="n">
-        <v>0.7448217159203741</v>
+        <v>0.7448217159202053</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.8899677060768</v>
       </c>
       <c r="F66" t="n">
-        <v>39.72329962323074</v>
+        <v>39.72329962323223</v>
       </c>
       <c r="G66" t="n">
-        <v>64.54419002486891</v>
+        <v>64.54419002486941</v>
       </c>
       <c r="H66" t="n">
-        <v>10.32777980711377</v>
+        <v>10.32777980711422</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>16.14543794141315</v>
+        <v>16.14543794141322</v>
       </c>
       <c r="L66" t="n">
-        <v>44.176054375337</v>
+        <v>44.17605437533871</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01263897840289209</v>
+        <v>0.01263897840289117</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2569666007069345</v>
+        <v>0.2569666007070869</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002834999999983268</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.08336648231326493</v>
       </c>
       <c r="F67" t="n">
-        <v>39.74709092123344</v>
+        <v>39.74709092123314</v>
       </c>
       <c r="G67" t="n">
-        <v>63.04073009667696</v>
+        <v>63.04073009668194</v>
       </c>
       <c r="H67" t="n">
-        <v>2.113614296612477</v>
+        <v>2.113614296612322</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3927,16 +3927,16 @@
         <v>40.68913562875419</v>
       </c>
       <c r="K67" t="n">
-        <v>5.207711083261885</v>
+        <v>5.207711083261873</v>
       </c>
       <c r="L67" t="n">
-        <v>38.43922228487781</v>
+        <v>38.43922228487723</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01060474060716054</v>
+        <v>0.01060474060716083</v>
       </c>
       <c r="N67" t="n">
-        <v>1.636061311242502</v>
+        <v>1.636061311242772</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002835999999994954</v>
+        <v>0.0002102999999991084</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.8584385635936</v>
       </c>
       <c r="F68" t="n">
-        <v>38.33436967507158</v>
+        <v>38.33436967507207</v>
       </c>
       <c r="G68" t="n">
-        <v>19.83837076435948</v>
+        <v>19.83837076435995</v>
       </c>
       <c r="H68" t="n">
-        <v>6.774163516242051</v>
+        <v>6.774163516242057</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>5.053182992857042</v>
+        <v>5.053182992857066</v>
       </c>
       <c r="L68" t="n">
-        <v>43.53365987240199</v>
+        <v>43.53365987240246</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01178802001809283</v>
+        <v>0.01178802001809253</v>
       </c>
       <c r="N68" t="n">
-        <v>1.421833007757753</v>
+        <v>1.421833007757756</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002983999999983666</v>
+        <v>0.0002909000000030915</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.887147784778</v>
       </c>
       <c r="F69" t="n">
-        <v>39.91599047660135</v>
+        <v>39.91599047660183</v>
       </c>
       <c r="G69" t="n">
-        <v>95.93777332692515</v>
+        <v>95.93777332692316</v>
       </c>
       <c r="H69" t="n">
-        <v>13.49684546500042</v>
+        <v>13.49684546500075</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4031,16 +4031,16 @@
         <v>38.98056188996542</v>
       </c>
       <c r="K69" t="n">
-        <v>25.77365985685503</v>
+        <v>25.77365985685498</v>
       </c>
       <c r="L69" t="n">
-        <v>39.55950877599773</v>
+        <v>39.55950877599882</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01152920404682807</v>
+        <v>0.01152920404682762</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1279130640335732</v>
+        <v>0.1279130640337376</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003043999999974289</v>
+        <v>0.000202600000001496</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.0944476364371679</v>
       </c>
       <c r="F70" t="n">
-        <v>39.65860473189642</v>
+        <v>39.65860473189608</v>
       </c>
       <c r="G70" t="n">
-        <v>83.78405591492813</v>
+        <v>83.78405591494484</v>
       </c>
       <c r="H70" t="n">
-        <v>2.22033575817412</v>
+        <v>2.220335758173935</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4083,16 +4083,16 @@
         <v>40.50448663765381</v>
       </c>
       <c r="K70" t="n">
-        <v>5.940720341398128</v>
+        <v>5.940720341398102</v>
       </c>
       <c r="L70" t="n">
-        <v>37.53224578304807</v>
+        <v>37.5322457830469</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01132197546363257</v>
+        <v>0.01132197546363308</v>
       </c>
       <c r="N70" t="n">
-        <v>1.991426540682634</v>
+        <v>1.991426540683239</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002864999999978579</v>
+        <v>0.0002095000000039704</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.9084492901451</v>
       </c>
       <c r="F71" t="n">
-        <v>39.01593640127848</v>
+        <v>39.01593640127096</v>
       </c>
       <c r="G71" t="n">
-        <v>51.28685417510545</v>
+        <v>51.2868541751053</v>
       </c>
       <c r="H71" t="n">
-        <v>12.98504432907493</v>
+        <v>12.98504432907159</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>16.03986543615883</v>
+        <v>16.03986543615853</v>
       </c>
       <c r="L71" t="n">
-        <v>48.01408191898647</v>
+        <v>48.014081918976</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01162675170528118</v>
+        <v>0.01162675170528592</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1281644662625718</v>
+        <v>0.1281644662623567</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002822999999985143</v>
+        <v>0.0002004000000042083</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.9149002591698</v>
       </c>
       <c r="F72" t="n">
-        <v>39.76224058098762</v>
+        <v>39.76224058098384</v>
       </c>
       <c r="G72" t="n">
-        <v>165.4776022092295</v>
+        <v>165.4776022092306</v>
       </c>
       <c r="H72" t="n">
-        <v>12.78063114666233</v>
+        <v>12.78063114666104</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>12.53337265770176</v>
+        <v>12.53337265770142</v>
       </c>
       <c r="L72" t="n">
-        <v>22.84345576137422</v>
+        <v>22.84345576137176</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01118284028483559</v>
+        <v>0.0111828402848376</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2219704384361185</v>
+        <v>0.22197043843623</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003212999999995247</v>
+        <v>0.0002318000000016696</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.04306031497297426</v>
       </c>
       <c r="F73" t="n">
-        <v>39.45526812984382</v>
+        <v>39.45526812984272</v>
       </c>
       <c r="G73" t="n">
-        <v>37.04182519951604</v>
+        <v>37.0418251995215</v>
       </c>
       <c r="H73" t="n">
-        <v>6.526781603016346</v>
+        <v>6.526781603014922</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>7.820240565508988</v>
+        <v>7.82024056550895</v>
       </c>
       <c r="L73" t="n">
-        <v>43.49498605497024</v>
+        <v>43.4949860549673</v>
       </c>
       <c r="M73" t="n">
-        <v>0.01009811849232184</v>
+        <v>0.01009811849232297</v>
       </c>
       <c r="N73" t="n">
-        <v>0.537086490406089</v>
+        <v>0.5370864904068134</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0002469000000004939</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9681454500934</v>
       </c>
       <c r="F74" t="n">
-        <v>39.16790412198518</v>
+        <v>39.16790412198578</v>
       </c>
       <c r="G74" t="n">
-        <v>18.53466269359677</v>
+        <v>18.53466269359616</v>
       </c>
       <c r="H74" t="n">
-        <v>11.46276304016184</v>
+        <v>11.46276304016276</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>6.352537934167311</v>
+        <v>6.352537934167336</v>
       </c>
       <c r="L74" t="n">
-        <v>49.89977272988619</v>
+        <v>49.89977272988791</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01035934988525482</v>
+        <v>0.01035934988525423</v>
       </c>
       <c r="N74" t="n">
-        <v>0.09553884792265405</v>
+        <v>0.09553884792281214</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003001000000004694</v>
+        <v>0.0002064999999973338</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.942318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>40.01912083840322</v>
+        <v>40.01912083839304</v>
       </c>
       <c r="G75" t="n">
-        <v>113.6056904441613</v>
+        <v>113.6056904441676</v>
       </c>
       <c r="H75" t="n">
-        <v>9.470154713950523</v>
+        <v>9.470154713947531</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>19.36025671095104</v>
+        <v>19.36025671095057</v>
       </c>
       <c r="L75" t="n">
-        <v>34.82109745504046</v>
+        <v>34.82109745502989</v>
       </c>
       <c r="M75" t="n">
-        <v>0.009464360044282213</v>
+        <v>0.009464360044287294</v>
       </c>
       <c r="N75" t="n">
-        <v>0.07447489509839397</v>
+        <v>0.07447489509681303</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.001123400000000885</v>
+        <v>0.0002109000000061201</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.9391654506192</v>
       </c>
       <c r="F76" t="n">
-        <v>39.22305763226117</v>
+        <v>39.22305763226264</v>
       </c>
       <c r="G76" t="n">
-        <v>35.51944471088373</v>
+        <v>35.51944471088265</v>
       </c>
       <c r="H76" t="n">
-        <v>12.55838984571501</v>
+        <v>12.55838984571622</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>11.43354972177325</v>
+        <v>11.43354972177329</v>
       </c>
       <c r="L76" t="n">
-        <v>49.86197603381225</v>
+        <v>49.86197603381514</v>
       </c>
       <c r="M76" t="n">
-        <v>0.009553534294653556</v>
+        <v>0.009553534294652572</v>
       </c>
       <c r="N76" t="n">
-        <v>0.07478080446004795</v>
+        <v>0.07478080446021529</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003115999999998564</v>
+        <v>0.0002031000000002336</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.07095021339761047</v>
       </c>
       <c r="F77" t="n">
-        <v>39.65736865877061</v>
+        <v>39.65736865876961</v>
       </c>
       <c r="G77" t="n">
-        <v>120.1333725643225</v>
+        <v>120.1333725643218</v>
       </c>
       <c r="H77" t="n">
-        <v>3.955191257709705</v>
+        <v>3.955191257709515</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>8.733785726415162</v>
+        <v>8.733785726415098</v>
       </c>
       <c r="L77" t="n">
-        <v>35.06489366381027</v>
+        <v>35.06489366380942</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01056209614478867</v>
+        <v>0.01056209614478926</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6392743703643857</v>
+        <v>0.6392743703642945</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002966999999998166</v>
+        <v>0.0001906999999974346</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.9059698689281</v>
       </c>
       <c r="F78" t="n">
-        <v>39.43097932306878</v>
+        <v>39.43097932305797</v>
       </c>
       <c r="G78" t="n">
-        <v>54.31511488693069</v>
+        <v>54.31511488693054</v>
       </c>
       <c r="H78" t="n">
-        <v>13.14827687241742</v>
+        <v>13.14827687241266</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>16.83130418699865</v>
+        <v>16.83130418699822</v>
       </c>
       <c r="L78" t="n">
-        <v>48.07784259085287</v>
+        <v>48.07784259083802</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01039486835293819</v>
+        <v>0.01039486835294459</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1060845964255907</v>
+        <v>0.1060845964242591</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002916000000006136</v>
+        <v>0.0002836000000030481</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9775555147925</v>
       </c>
       <c r="F79" t="n">
-        <v>39.54341044279384</v>
+        <v>39.54341044279322</v>
       </c>
       <c r="G79" t="n">
-        <v>164.9662080949526</v>
+        <v>164.9662080949532</v>
       </c>
       <c r="H79" t="n">
-        <v>10.36264159335603</v>
+        <v>10.36264159335599</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>9.970738188649863</v>
+        <v>9.970738188649813</v>
       </c>
       <c r="L79" t="n">
-        <v>25.29961092937002</v>
+        <v>25.29961092936939</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0101985375299869</v>
+        <v>0.01019853752998731</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1023357992309603</v>
+        <v>0.1023357992310115</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003113999999975192</v>
+        <v>0.0002023999999991588</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9877953862775</v>
       </c>
       <c r="F80" t="n">
-        <v>39.60269146348741</v>
+        <v>39.60269146348775</v>
       </c>
       <c r="G80" t="n">
-        <v>8.918777661625134</v>
+        <v>8.918777661625006</v>
       </c>
       <c r="H80" t="n">
-        <v>10.41230321527509</v>
+        <v>10.41230321527571</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4603,16 +4603,16 @@
         <v>50.73672563365681</v>
       </c>
       <c r="K80" t="n">
-        <v>3.594853958327801</v>
+        <v>3.594853958327826</v>
       </c>
       <c r="L80" t="n">
-        <v>49.4272740063327</v>
+        <v>49.42727400633379</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0102824619532695</v>
+        <v>0.0102824619532692</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2220934770474684</v>
+        <v>0.2220934770472833</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002886000000010824</v>
+        <v>0.0002384000000006381</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.3316358820770021</v>
       </c>
       <c r="F81" t="n">
-        <v>36.95465202702528</v>
+        <v>36.95465202703183</v>
       </c>
       <c r="G81" t="n">
-        <v>107.8573059661464</v>
+        <v>107.8573059661409</v>
       </c>
       <c r="H81" t="n">
-        <v>7.255455047203296</v>
+        <v>7.255455047205033</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>16.98281769067884</v>
+        <v>16.98281769067922</v>
       </c>
       <c r="L81" t="n">
-        <v>33.1117547963877</v>
+        <v>33.11175479639476</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02102987863401231</v>
+        <v>0.02102987863400298</v>
       </c>
       <c r="N81" t="n">
-        <v>1.128562903169487</v>
+        <v>1.128562903168452</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002845000000029074</v>
+        <v>0.0002160999999958335</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.8100147063852</v>
       </c>
       <c r="F82" t="n">
-        <v>40.32663736485616</v>
+        <v>40.32663736485427</v>
       </c>
       <c r="G82" t="n">
-        <v>89.8450867427371</v>
+        <v>89.84508674273648</v>
       </c>
       <c r="H82" t="n">
-        <v>11.92290342423795</v>
+        <v>11.92290342423729</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>22.12083914171625</v>
+        <v>22.12083914171614</v>
       </c>
       <c r="L82" t="n">
-        <v>40.74813670261756</v>
+        <v>40.74813670261565</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01261445857094367</v>
+        <v>0.01261445857094478</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2799040435962782</v>
+        <v>0.2799040435960394</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.00048439999999772</v>
+        <v>0.0001993999999996277</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.1359900342218655</v>
       </c>
       <c r="F83" t="n">
-        <v>39.19185411659326</v>
+        <v>39.19185411659826</v>
       </c>
       <c r="G83" t="n">
-        <v>75.5804226927398</v>
+        <v>75.58042269273638</v>
       </c>
       <c r="H83" t="n">
-        <v>5.969626189133321</v>
+        <v>5.969626189134626</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>12.06836452797365</v>
+        <v>12.0683645279739</v>
       </c>
       <c r="L83" t="n">
-        <v>39.22619976498918</v>
+        <v>39.22619976499517</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01140637534427838</v>
+        <v>0.01140637534427523</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8055571623017805</v>
+        <v>0.8055571623009334</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003089000000002784</v>
+        <v>0.0002362999999974136</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.9159349597244</v>
       </c>
       <c r="F84" t="n">
-        <v>39.32890127187348</v>
+        <v>39.32890127187468</v>
       </c>
       <c r="G84" t="n">
-        <v>47.14810805001574</v>
+        <v>47.14810805001353</v>
       </c>
       <c r="H84" t="n">
-        <v>11.1437657801719</v>
+        <v>11.14376578017299</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>13.40415990066212</v>
+        <v>13.40415990066214</v>
       </c>
       <c r="L84" t="n">
-        <v>47.08999712665862</v>
+        <v>47.08999712666117</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0114492456205256</v>
+        <v>0.01144924562052444</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1817796372143576</v>
+        <v>0.1817796372147599</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002963999999998634</v>
+        <v>0.0002054000000057954</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.9150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>39.14735084753909</v>
+        <v>39.14735084753615</v>
       </c>
       <c r="G85" t="n">
-        <v>44.32433833808305</v>
+        <v>44.32433833808274</v>
       </c>
       <c r="H85" t="n">
-        <v>11.5629671564908</v>
+        <v>11.56296715648966</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4863,16 +4863,16 @@
         <v>47.93179806456282</v>
       </c>
       <c r="K85" t="n">
-        <v>13.09596952104814</v>
+        <v>13.09596952104801</v>
       </c>
       <c r="L85" t="n">
-        <v>47.6979997449163</v>
+        <v>47.69799974491232</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01074580455079765</v>
+        <v>0.01074580455079949</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1444819991472369</v>
+        <v>0.1444819991471571</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002957999999999572</v>
+        <v>0.0002007000000006087</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.01316122019755319</v>
       </c>
       <c r="F86" t="n">
-        <v>39.4179242521151</v>
+        <v>39.41792425211585</v>
       </c>
       <c r="G86" t="n">
-        <v>7.860566756534402</v>
+        <v>7.860566756534911</v>
       </c>
       <c r="H86" t="n">
-        <v>7.343792921830661</v>
+        <v>7.343792921830529</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4915,16 +4915,16 @@
         <v>46.28716097005798</v>
       </c>
       <c r="K86" t="n">
-        <v>2.998171865255142</v>
+        <v>2.998171865255167</v>
       </c>
       <c r="L86" t="n">
-        <v>45.5937164424867</v>
+        <v>45.59371644248728</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01142669641238248</v>
+        <v>0.01142669641238223</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08033957324241345</v>
+        <v>0.08033957324241726</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003188999999998998</v>
+        <v>0.0001979000000034148</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9823149278921</v>
       </c>
       <c r="F87" t="n">
-        <v>39.47281266497024</v>
+        <v>39.47281266496302</v>
       </c>
       <c r="G87" t="n">
-        <v>110.9025584409783</v>
+        <v>110.9025584409799</v>
       </c>
       <c r="H87" t="n">
-        <v>8.952806964507811</v>
+        <v>8.952806964505681</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>18.72612731896636</v>
+        <v>18.72612731896597</v>
       </c>
       <c r="L87" t="n">
-        <v>34.86927304625812</v>
+        <v>34.86927304625109</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0104567195466265</v>
+        <v>0.0104567195466305</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08676829575507602</v>
+        <v>0.0867682957560518</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0007158000000018205</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.05962857189673432</v>
       </c>
       <c r="F88" t="n">
-        <v>39.50612490131864</v>
+        <v>39.50612490131899</v>
       </c>
       <c r="G88" t="n">
-        <v>45.82283358512942</v>
+        <v>45.82283358512395</v>
       </c>
       <c r="H88" t="n">
-        <v>4.142679069346912</v>
+        <v>4.142679069347469</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>6.750905185223307</v>
+        <v>6.750905185223333</v>
       </c>
       <c r="L88" t="n">
-        <v>40.63582240795</v>
+        <v>40.63582240795117</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01069532002630127</v>
+        <v>0.01069532002630094</v>
       </c>
       <c r="N88" t="n">
-        <v>0.9468000477892093</v>
+        <v>0.9468000477887668</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002980999999984135</v>
+        <v>0.0002290999999985388</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9627624479147</v>
       </c>
       <c r="F89" t="n">
-        <v>39.66269517198009</v>
+        <v>39.66269517199157</v>
       </c>
       <c r="G89" t="n">
-        <v>117.7487353959887</v>
+        <v>117.748735395986</v>
       </c>
       <c r="H89" t="n">
-        <v>14.33118036954638</v>
+        <v>14.33118036955135</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>29.40232631015652</v>
+        <v>29.40232631015705</v>
       </c>
       <c r="L89" t="n">
-        <v>33.33275650193958</v>
+        <v>33.33275650195053</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01042108932427957</v>
+        <v>0.01042108932427317</v>
       </c>
       <c r="N89" t="n">
-        <v>0.04680111224764316</v>
+        <v>0.04680111224617743</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003258999999999901</v>
+        <v>0.0002352999999999383</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9893115695848</v>
       </c>
       <c r="F90" t="n">
-        <v>39.73122932526526</v>
+        <v>39.73122932526064</v>
       </c>
       <c r="G90" t="n">
-        <v>116.3153479758253</v>
+        <v>116.3153479758271</v>
       </c>
       <c r="H90" t="n">
-        <v>9.002448807170735</v>
+        <v>9.002448807169413</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>18.54842122209392</v>
+        <v>18.54842122209368</v>
       </c>
       <c r="L90" t="n">
-        <v>34.09696249318746</v>
+        <v>34.09696249318294</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01016385803988283</v>
+        <v>0.01016385803988549</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04459292162015326</v>
+        <v>0.04459292162075358</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.00028549999999683</v>
+        <v>0.0002057000000021958</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.169373002654711</v>
       </c>
       <c r="F91" t="n">
-        <v>38.71775151976949</v>
+        <v>38.7177515197713</v>
       </c>
       <c r="G91" t="n">
-        <v>107.3190806383483</v>
+        <v>107.3190806383441</v>
       </c>
       <c r="H91" t="n">
-        <v>5.570092891887644</v>
+        <v>5.570092891887986</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>12.6658449450282</v>
+        <v>12.66584494502829</v>
       </c>
       <c r="L91" t="n">
-        <v>34.96219816987374</v>
+        <v>34.96219816987595</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01252277176654788</v>
+        <v>0.01252277176654639</v>
       </c>
       <c r="N91" t="n">
-        <v>0.8066770858044304</v>
+        <v>0.8066770858040664</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002804999999987956</v>
+        <v>0.0002009999999970091</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.0224486668199389</v>
       </c>
       <c r="F92" t="n">
-        <v>39.22338097476917</v>
+        <v>39.22338097476828</v>
       </c>
       <c r="G92" t="n">
-        <v>29.526932423839</v>
+        <v>29.52693242382957</v>
       </c>
       <c r="H92" t="n">
-        <v>4.256194370945588</v>
+        <v>4.25619437094692</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>5.154299003970311</v>
+        <v>5.154299003970273</v>
       </c>
       <c r="L92" t="n">
-        <v>41.21778574102083</v>
+        <v>41.21778574102174</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01103256962000031</v>
+        <v>0.01103256962000032</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4494922238654159</v>
+        <v>0.449492223864478</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002821999999973457</v>
+        <v>0.000298299999997198</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.06061210177347404</v>
       </c>
       <c r="F93" t="n">
-        <v>39.1888795858543</v>
+        <v>39.18887958585545</v>
       </c>
       <c r="G93" t="n">
-        <v>41.59348105982927</v>
+        <v>41.59348105982797</v>
       </c>
       <c r="H93" t="n">
-        <v>5.654685388101757</v>
+        <v>5.654685388102249</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>7.815553873497432</v>
+        <v>7.815553873497495</v>
       </c>
       <c r="L93" t="n">
-        <v>42.03777374065884</v>
+        <v>42.03777374066056</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01009752910415501</v>
+        <v>0.01009752910415428</v>
       </c>
       <c r="N93" t="n">
-        <v>0.706083413169592</v>
+        <v>0.7060834131693037</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.000198500000003321</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9769700758218</v>
       </c>
       <c r="F94" t="n">
-        <v>39.61524751779056</v>
+        <v>39.61524751779033</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4520759372816</v>
+        <v>159.4520759372811</v>
       </c>
       <c r="H94" t="n">
-        <v>12.32913213280361</v>
+        <v>12.32913213280334</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>15.33595813468967</v>
+        <v>15.33595813468963</v>
       </c>
       <c r="L94" t="n">
-        <v>23.999787716863</v>
+        <v>23.99978771686312</v>
       </c>
       <c r="M94" t="n">
-        <v>0.009200799482031346</v>
+        <v>0.009200799482031449</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0475658048586305</v>
+        <v>0.0475658048586985</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002911999999994919</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.8369801919656</v>
       </c>
       <c r="F95" t="n">
-        <v>40.19304597091764</v>
+        <v>40.19304597092338</v>
       </c>
       <c r="G95" t="n">
-        <v>104.6492709347761</v>
+        <v>104.6492709347732</v>
       </c>
       <c r="H95" t="n">
-        <v>11.11287635250329</v>
+        <v>11.11287635250533</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>22.19951064618482</v>
+        <v>22.19951064618505</v>
       </c>
       <c r="L95" t="n">
-        <v>36.9423624385529</v>
+        <v>36.9423624385592</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0112345916408299</v>
+        <v>0.01123459164082658</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2224263557705014</v>
+        <v>0.2224263557712789</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002931999999979951</v>
+        <v>0.0002123000000011643</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.9256546784487</v>
       </c>
       <c r="F96" t="n">
-        <v>39.73587979904727</v>
+        <v>39.73587979904803</v>
       </c>
       <c r="G96" t="n">
-        <v>127.0780411907821</v>
+        <v>127.0780411907802</v>
       </c>
       <c r="H96" t="n">
-        <v>10.08977870886595</v>
+        <v>10.08977870886607</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5438,13 +5438,13 @@
         <v>19.87289096957839</v>
       </c>
       <c r="L96" t="n">
-        <v>31.70794069761762</v>
+        <v>31.7079406976187</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01063983594055349</v>
+        <v>0.01063983594055303</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1331412809843107</v>
+        <v>0.133141280984389</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0002033999999966341</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.06642888995524825</v>
       </c>
       <c r="F97" t="n">
-        <v>39.52995469025689</v>
+        <v>39.52995469025729</v>
       </c>
       <c r="G97" t="n">
-        <v>49.92644089008701</v>
+        <v>49.92644089008706</v>
       </c>
       <c r="H97" t="n">
-        <v>4.184323814166739</v>
+        <v>4.184323814166813</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5487,16 +5487,16 @@
         <v>42.49750700264286</v>
       </c>
       <c r="K97" t="n">
-        <v>7.181688644493256</v>
+        <v>7.181688644493282</v>
       </c>
       <c r="L97" t="n">
-        <v>40.46350714767272</v>
+        <v>40.46350714767318</v>
       </c>
       <c r="M97" t="n">
-        <v>0.01008228134177453</v>
+        <v>0.01008228134177435</v>
       </c>
       <c r="N97" t="n">
-        <v>0.8325197530226964</v>
+        <v>0.8325197530226378</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002931000000003792</v>
+        <v>0.0002573000000012371</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>39.047130393928</v>
+        <v>39.04713039392595</v>
       </c>
       <c r="G98" t="n">
-        <v>38.6961325799187</v>
+        <v>38.69613257991843</v>
       </c>
       <c r="H98" t="n">
-        <v>13.43217846006517</v>
+        <v>13.43217846006427</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>12.91987512602322</v>
+        <v>12.91987512602313</v>
       </c>
       <c r="L98" t="n">
-        <v>50.28390729482668</v>
+        <v>50.28390729482374</v>
       </c>
       <c r="M98" t="n">
-        <v>0.009991741291275438</v>
+        <v>0.00999174129127655</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1429247399871089</v>
+        <v>0.1429247399873794</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003022000000001412</v>
+        <v>0.0002123999999952275</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.1751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>37.76115388253891</v>
+        <v>37.76115388254814</v>
       </c>
       <c r="G99" t="n">
-        <v>153.9917840093885</v>
+        <v>153.9917840093855</v>
       </c>
       <c r="H99" t="n">
-        <v>14.19058578481945</v>
+        <v>14.19058578482318</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>23.80555943216518</v>
+        <v>23.80555943216592</v>
       </c>
       <c r="L99" t="n">
-        <v>21.68536899604979</v>
+        <v>21.68536899605606</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01238136721647965</v>
+        <v>0.0123813672164684</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3559030984519358</v>
+        <v>0.3559030984506074</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0004048000000018703</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9526282918734</v>
       </c>
       <c r="F100" t="n">
-        <v>39.42621085902714</v>
+        <v>39.42621085904342</v>
       </c>
       <c r="G100" t="n">
-        <v>130.5982519102052</v>
+        <v>130.598251910194</v>
       </c>
       <c r="H100" t="n">
-        <v>9.565383299119103</v>
+        <v>9.56538329912344</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>18.56364091049211</v>
+        <v>18.56364091049301</v>
       </c>
       <c r="L100" t="n">
-        <v>30.95055290237846</v>
+        <v>30.95055290239403</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01158382449148377</v>
+        <v>0.01158382449147412</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1126718640120797</v>
+        <v>0.1126718640102021</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003215999999994779</v>
+        <v>0.0001905000000022028</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0142358842701934</v>
       </c>
       <c r="F101" t="n">
-        <v>39.35421162520519</v>
+        <v>39.35421162520939</v>
       </c>
       <c r="G101" t="n">
-        <v>122.3804894899308</v>
+        <v>122.3804894899299</v>
       </c>
       <c r="H101" t="n">
-        <v>8.716507327953916</v>
+        <v>8.716507327955123</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>17.82819746079974</v>
+        <v>17.8281974608</v>
       </c>
       <c r="L101" t="n">
-        <v>32.70682990570254</v>
+        <v>32.70682990570633</v>
       </c>
       <c r="M101" t="n">
-        <v>0.009967078593763926</v>
+        <v>0.009967078593761482</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1217469653874972</v>
+        <v>0.1217469653868846</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003006000000027598</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
   </sheetData>
